--- a/example/excel/dota装备表.xlsx
+++ b/example/excel/dota装备表.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="221" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="221" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="dota装备表" sheetId="2" r:id="rId1"/>
     <sheet name="dota英雄表" sheetId="3" r:id="rId2"/>
+    <sheet name="dota技能表" sheetId="4" r:id="rId3"/>
+    <sheet name="dota怪物表" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -239,6 +241,14 @@
   </si>
   <si>
     <t>英雄ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dotaskillcfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dotamonstercfg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -329,7 +339,543 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="78">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -956,7 +1502,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表1_6" displayName="表1_6" ref="A8:H15" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表1_6" displayName="表1_6" ref="A8:H15" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="A8:H15">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
@@ -964,32 +1510,71 @@
     <filterColumn colId="7"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="物品ID" dataDxfId="39"/>
-    <tableColumn id="2" name="物品名称" dataDxfId="38"/>
-    <tableColumn id="3" name="描述" dataDxfId="37"/>
-    <tableColumn id="4" name="售出价格" dataDxfId="36"/>
-    <tableColumn id="5" name="是否死亡掉落" dataDxfId="35"/>
-    <tableColumn id="6" name="攻击力" dataDxfId="34"/>
-    <tableColumn id="7" name="合成列表" dataDxfId="33"/>
-    <tableColumn id="8" name="合成数量" dataDxfId="32"/>
+    <tableColumn id="1" name="物品ID" dataDxfId="75"/>
+    <tableColumn id="2" name="物品名称" dataDxfId="74"/>
+    <tableColumn id="3" name="描述" dataDxfId="73"/>
+    <tableColumn id="4" name="售出价格" dataDxfId="72"/>
+    <tableColumn id="5" name="是否死亡掉落" dataDxfId="71"/>
+    <tableColumn id="6" name="攻击力" dataDxfId="70"/>
+    <tableColumn id="7" name="合成列表" dataDxfId="69"/>
+    <tableColumn id="8" name="合成数量" dataDxfId="68"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="表1_3511710313" displayName="表1_3511710313" ref="A1:B2" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:B2"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="程序英文名" dataDxfId="15"/>
+    <tableColumn id="4" name="最多有几条数据（0表示不限）" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表1_69514" displayName="表1_69514" ref="A8:E15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A8:E15"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="英雄ID" dataDxfId="11"/>
+    <tableColumn id="2" name="英雄名称" dataDxfId="10"/>
+    <tableColumn id="3" name="力量" dataDxfId="9"/>
+    <tableColumn id="4" name="敏捷" dataDxfId="8"/>
+    <tableColumn id="5" name="智力" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表4_8111215" displayName="表4_8111215" ref="A4:E6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A4:E6"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="id" dataDxfId="4"/>
+    <tableColumn id="2" name="name" dataDxfId="3"/>
+    <tableColumn id="3" name="strength" dataDxfId="2"/>
+    <tableColumn id="4" name="agile" dataDxfId="1"/>
+    <tableColumn id="5" name="intelligense" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表1_35117" displayName="表1_35117" ref="A1:B2" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表1_35117" displayName="表1_35117" ref="A1:B2" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="A1:B2"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="程序英文名" dataDxfId="29"/>
-    <tableColumn id="4" name="最多有几条数据（0表示不限）" dataDxfId="28"/>
+    <tableColumn id="1" name="程序英文名" dataDxfId="65"/>
+    <tableColumn id="4" name="最多有几条数据（0表示不限）" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表4_8" displayName="表4_8" ref="A4:H6" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表4_8" displayName="表4_8" ref="A4:H6" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="A4:H6">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
@@ -997,57 +1582,96 @@
     <filterColumn colId="7"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="id" dataDxfId="25"/>
-    <tableColumn id="2" name="name" dataDxfId="24"/>
-    <tableColumn id="3" name="desc" dataDxfId="23"/>
-    <tableColumn id="4" name="price" dataDxfId="22"/>
-    <tableColumn id="5" name="isdrop" dataDxfId="21"/>
-    <tableColumn id="6" name="attack" dataDxfId="20"/>
-    <tableColumn id="7" name="bornlist" dataDxfId="19"/>
-    <tableColumn id="8" name="bornnum" dataDxfId="18"/>
+    <tableColumn id="1" name="id" dataDxfId="61"/>
+    <tableColumn id="2" name="name" dataDxfId="60"/>
+    <tableColumn id="3" name="desc" dataDxfId="59"/>
+    <tableColumn id="4" name="price" dataDxfId="58"/>
+    <tableColumn id="5" name="isdrop" dataDxfId="57"/>
+    <tableColumn id="6" name="attack" dataDxfId="56"/>
+    <tableColumn id="7" name="bornlist" dataDxfId="55"/>
+    <tableColumn id="8" name="bornnum" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表1_69" displayName="表1_69" ref="A8:E15" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表1_69" displayName="表1_69" ref="A8:E15" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A8:E15">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="英雄ID" dataDxfId="15"/>
-    <tableColumn id="2" name="英雄名称" dataDxfId="14"/>
-    <tableColumn id="3" name="力量" dataDxfId="13"/>
-    <tableColumn id="4" name="敏捷" dataDxfId="12"/>
-    <tableColumn id="5" name="智力" dataDxfId="11"/>
+    <tableColumn id="1" name="英雄ID" dataDxfId="51"/>
+    <tableColumn id="2" name="英雄名称" dataDxfId="50"/>
+    <tableColumn id="3" name="力量" dataDxfId="49"/>
+    <tableColumn id="4" name="敏捷" dataDxfId="48"/>
+    <tableColumn id="5" name="智力" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="表1_3511710" displayName="表1_3511710" ref="A1:B2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="表1_3511710" displayName="表1_3511710" ref="A1:B2" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:B2"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="程序英文名" dataDxfId="8"/>
-    <tableColumn id="4" name="最多有几条数据（0表示不限）" dataDxfId="7"/>
+    <tableColumn id="1" name="程序英文名" dataDxfId="44"/>
+    <tableColumn id="4" name="最多有几条数据（0表示不限）" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表4_811" displayName="表4_811" ref="A4:E6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表4_811" displayName="表4_811" ref="A4:E6" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A4:E6">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="id" dataDxfId="4"/>
-    <tableColumn id="2" name="name" dataDxfId="3"/>
-    <tableColumn id="3" name="strength" dataDxfId="2"/>
-    <tableColumn id="4" name="agile" dataDxfId="1"/>
-    <tableColumn id="5" name="intelligense" dataDxfId="0"/>
+    <tableColumn id="1" name="id" dataDxfId="40"/>
+    <tableColumn id="2" name="name" dataDxfId="39"/>
+    <tableColumn id="3" name="strength" dataDxfId="38"/>
+    <tableColumn id="4" name="agile" dataDxfId="37"/>
+    <tableColumn id="5" name="intelligense" dataDxfId="36"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_35117103" displayName="表1_35117103" ref="A1:B2" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A1:B2"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="程序英文名" dataDxfId="33"/>
+    <tableColumn id="4" name="最多有几条数据（0表示不限）" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_695" displayName="表1_695" ref="A8:E15" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A8:E15"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="英雄ID" dataDxfId="29"/>
+    <tableColumn id="2" name="英雄名称" dataDxfId="28"/>
+    <tableColumn id="3" name="力量" dataDxfId="27"/>
+    <tableColumn id="4" name="敏捷" dataDxfId="26"/>
+    <tableColumn id="5" name="智力" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表4_81112" displayName="表4_81112" ref="A4:E6" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A4:E6"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="id" dataDxfId="22"/>
+    <tableColumn id="2" name="name" dataDxfId="21"/>
+    <tableColumn id="3" name="strength" dataDxfId="20"/>
+    <tableColumn id="4" name="agile" dataDxfId="19"/>
+    <tableColumn id="5" name="intelligense" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1642,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1876,4 +2500,482 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20.00001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>301.11110000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20.00001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>301.11110000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20.00001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>301.11110000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20.00001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>301.11110000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>20.00001</v>
+      </c>
+      <c r="E13" s="2">
+        <v>301.11110000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20.00001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>301.11110000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20.00001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>301.11110000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20.00001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>301.11110000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20.00001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>301.11110000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20.00001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>301.11110000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20.00001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>301.11110000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>20.00001</v>
+      </c>
+      <c r="E13" s="2">
+        <v>301.11110000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20.00001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>301.11110000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20.00001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>301.11110000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/example/excel/dota装备表.xlsx
+++ b/example/excel/dota装备表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="221" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="221" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dota装备表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -40,10 +40,6 @@
     <t>物品名称</t>
   </si>
   <si>
-    <t>程序英文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,14 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dotaequipcfg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dotaherocfg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>strength</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最多有几条数据（0表示不限）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英雄名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,11 +228,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dotaskillcfg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dotamonstercfg</t>
+    <t>DotaEquipConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DotaHeroConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DotaSkillConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DotaNpcConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DotaModule</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +300,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -319,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,11 +346,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="75">
     <dxf>
       <font>
         <strike val="0"/>
@@ -592,6 +606,202 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -610,202 +820,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -842,145 +856,91 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1502,7 +1462,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表1_6" displayName="表1_6" ref="A8:H15" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表1_6" displayName="表1_6" ref="A8:H15" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="A8:H15">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
@@ -1510,25 +1470,24 @@
     <filterColumn colId="7"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="物品ID" dataDxfId="75"/>
-    <tableColumn id="2" name="物品名称" dataDxfId="74"/>
-    <tableColumn id="3" name="描述" dataDxfId="73"/>
-    <tableColumn id="4" name="售出价格" dataDxfId="72"/>
-    <tableColumn id="5" name="是否死亡掉落" dataDxfId="71"/>
-    <tableColumn id="6" name="攻击力" dataDxfId="70"/>
-    <tableColumn id="7" name="合成列表" dataDxfId="69"/>
-    <tableColumn id="8" name="合成数量" dataDxfId="68"/>
+    <tableColumn id="1" name="物品ID" dataDxfId="72"/>
+    <tableColumn id="2" name="物品名称" dataDxfId="71"/>
+    <tableColumn id="3" name="描述" dataDxfId="70"/>
+    <tableColumn id="4" name="售出价格" dataDxfId="69"/>
+    <tableColumn id="5" name="是否死亡掉落" dataDxfId="68"/>
+    <tableColumn id="6" name="攻击力" dataDxfId="67"/>
+    <tableColumn id="7" name="合成列表" dataDxfId="66"/>
+    <tableColumn id="8" name="合成数量" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="表1_3511710313" displayName="表1_3511710313" ref="A1:B2" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:B2"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="程序英文名" dataDxfId="15"/>
-    <tableColumn id="4" name="最多有几条数据（0表示不限）" dataDxfId="14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="表1_3511710313" displayName="表1_3511710313" ref="A1:A2" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:A2"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="文件名" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1563,18 +1522,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表1_35117" displayName="表1_35117" ref="A1:B2" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
-  <autoFilter ref="A1:B2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表1_35117" displayName="表1_35117" ref="A1:B2" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+  <autoFilter ref="A1:B2">
+    <filterColumn colId="1"/>
+  </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="程序英文名" dataDxfId="65"/>
-    <tableColumn id="4" name="最多有几条数据（0表示不限）" dataDxfId="64"/>
+    <tableColumn id="1" name="文件名" dataDxfId="62"/>
+    <tableColumn id="2" name="程序类名" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表4_8" displayName="表4_8" ref="A4:H6" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表4_8" displayName="表4_8" ref="A4:H6" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="A4:H6">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
@@ -1582,96 +1543,94 @@
     <filterColumn colId="7"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="id" dataDxfId="61"/>
-    <tableColumn id="2" name="name" dataDxfId="60"/>
-    <tableColumn id="3" name="desc" dataDxfId="59"/>
-    <tableColumn id="4" name="price" dataDxfId="58"/>
-    <tableColumn id="5" name="isdrop" dataDxfId="57"/>
-    <tableColumn id="6" name="attack" dataDxfId="56"/>
-    <tableColumn id="7" name="bornlist" dataDxfId="55"/>
-    <tableColumn id="8" name="bornnum" dataDxfId="54"/>
+    <tableColumn id="1" name="id" dataDxfId="58"/>
+    <tableColumn id="2" name="name" dataDxfId="57"/>
+    <tableColumn id="3" name="desc" dataDxfId="56"/>
+    <tableColumn id="4" name="price" dataDxfId="55"/>
+    <tableColumn id="5" name="isdrop" dataDxfId="54"/>
+    <tableColumn id="6" name="attack" dataDxfId="53"/>
+    <tableColumn id="7" name="bornlist" dataDxfId="52"/>
+    <tableColumn id="8" name="bornnum" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表1_69" displayName="表1_69" ref="A8:E15" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表1_69" displayName="表1_69" ref="A8:E15" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A8:E15">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="英雄ID" dataDxfId="51"/>
-    <tableColumn id="2" name="英雄名称" dataDxfId="50"/>
-    <tableColumn id="3" name="力量" dataDxfId="49"/>
-    <tableColumn id="4" name="敏捷" dataDxfId="48"/>
-    <tableColumn id="5" name="智力" dataDxfId="47"/>
+    <tableColumn id="1" name="英雄ID" dataDxfId="48"/>
+    <tableColumn id="2" name="英雄名称" dataDxfId="47"/>
+    <tableColumn id="3" name="力量" dataDxfId="46"/>
+    <tableColumn id="4" name="敏捷" dataDxfId="45"/>
+    <tableColumn id="5" name="智力" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="表1_3511710" displayName="表1_3511710" ref="A1:B2" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
-  <autoFilter ref="A1:B2"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="程序英文名" dataDxfId="44"/>
-    <tableColumn id="4" name="最多有几条数据（0表示不限）" dataDxfId="43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="表1_3511710" displayName="表1_3511710" ref="A1:A2" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:A2"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="文件名" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表4_811" displayName="表4_811" ref="A4:E6" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表4_811" displayName="表4_811" ref="A4:E6" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A4:E6">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="id" dataDxfId="40"/>
-    <tableColumn id="2" name="name" dataDxfId="39"/>
-    <tableColumn id="3" name="strength" dataDxfId="38"/>
-    <tableColumn id="4" name="agile" dataDxfId="37"/>
-    <tableColumn id="5" name="intelligense" dataDxfId="36"/>
+    <tableColumn id="1" name="id" dataDxfId="38"/>
+    <tableColumn id="2" name="name" dataDxfId="37"/>
+    <tableColumn id="3" name="strength" dataDxfId="36"/>
+    <tableColumn id="4" name="agile" dataDxfId="35"/>
+    <tableColumn id="5" name="intelligense" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_35117103" displayName="表1_35117103" ref="A1:B2" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A1:B2"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="程序英文名" dataDxfId="33"/>
-    <tableColumn id="4" name="最多有几条数据（0表示不限）" dataDxfId="32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_35117103" displayName="表1_35117103" ref="A1:A2" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:A2"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="文件名" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_695" displayName="表1_695" ref="A8:E15" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_695" displayName="表1_695" ref="A8:E15" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A8:E15"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="英雄ID" dataDxfId="29"/>
-    <tableColumn id="2" name="英雄名称" dataDxfId="28"/>
-    <tableColumn id="3" name="力量" dataDxfId="27"/>
-    <tableColumn id="4" name="敏捷" dataDxfId="26"/>
-    <tableColumn id="5" name="智力" dataDxfId="25"/>
+    <tableColumn id="1" name="英雄ID" dataDxfId="28"/>
+    <tableColumn id="2" name="英雄名称" dataDxfId="27"/>
+    <tableColumn id="3" name="力量" dataDxfId="26"/>
+    <tableColumn id="4" name="敏捷" dataDxfId="25"/>
+    <tableColumn id="5" name="智力" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表4_81112" displayName="表4_81112" ref="A4:E6" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表4_81112" displayName="表4_81112" ref="A4:E6" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A4:E6"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="id" dataDxfId="22"/>
-    <tableColumn id="2" name="name" dataDxfId="21"/>
-    <tableColumn id="3" name="strength" dataDxfId="20"/>
-    <tableColumn id="4" name="agile" dataDxfId="19"/>
-    <tableColumn id="5" name="intelligense" dataDxfId="18"/>
+    <tableColumn id="1" name="id" dataDxfId="21"/>
+    <tableColumn id="2" name="name" dataDxfId="20"/>
+    <tableColumn id="3" name="strength" dataDxfId="19"/>
+    <tableColumn id="4" name="agile" dataDxfId="18"/>
+    <tableColumn id="5" name="intelligense" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1965,13 +1924,13 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="A8:H15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="31.875" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
     <col min="3" max="3" width="50.5" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
@@ -1982,21 +1941,19 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
@@ -2012,48 +1969,48 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2068,10 +2025,10 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2088,22 +2045,22 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2111,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -2131,7 +2088,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -2151,10 +2108,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1">
         <v>1100</v>
@@ -2166,10 +2123,10 @@
         <v>300</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2177,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2195,7 +2152,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2213,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2231,10 +2188,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4">
@@ -2244,10 +2201,10 @@
         <v>100</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2266,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2281,21 +2238,15 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
@@ -2311,30 +2262,30 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2356,19 +2307,19 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2376,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1">
         <v>10.5</v>
@@ -2393,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1">
         <v>10.5</v>
@@ -2410,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1">
         <v>10.5</v>
@@ -2427,7 +2378,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1">
         <v>10.5</v>
@@ -2444,7 +2395,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1">
         <v>10.5</v>
@@ -2461,7 +2412,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
         <v>10.5</v>
@@ -2478,7 +2429,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1">
         <v>10.5</v>
@@ -2507,7 +2458,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="A1:XFD1048576"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2521,21 +2472,15 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
@@ -2551,30 +2496,30 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2596,19 +2541,19 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2616,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1">
         <v>10.5</v>
@@ -2633,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1">
         <v>10.5</v>
@@ -2650,7 +2595,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1">
         <v>10.5</v>
@@ -2667,7 +2612,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1">
         <v>10.5</v>
@@ -2684,7 +2629,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1">
         <v>10.5</v>
@@ -2701,7 +2646,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
         <v>10.5</v>
@@ -2718,7 +2663,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1">
         <v>10.5</v>
@@ -2745,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2760,21 +2705,15 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
@@ -2790,30 +2729,30 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2835,19 +2774,19 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2855,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1">
         <v>10.5</v>
@@ -2872,7 +2811,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1">
         <v>10.5</v>
@@ -2889,7 +2828,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1">
         <v>10.5</v>
@@ -2906,7 +2845,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1">
         <v>10.5</v>
@@ -2923,7 +2862,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1">
         <v>10.5</v>
@@ -2940,7 +2879,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
         <v>10.5</v>
@@ -2957,7 +2896,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1">
         <v>10.5</v>
